--- a/Plasma RF Review data_company.xlsx
+++ b/Plasma RF Review data_company.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3D1131-08FC-4164-8674-6D6E943B8A94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Debugging" sheetId="10" r:id="rId12"/>
     <sheet name="FILTER" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="234">
   <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,11 +984,35 @@
     <t>R7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IMA-x600-48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203.1x101.6x40.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMC-12V100W1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>158x97x38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -1637,7 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1933,108 +1956,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2050,6 +1971,108 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2058,6 +2081,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2102,7 +2137,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2186,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2235,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2284,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2339,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2400,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2450,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2505,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2592,26 +2627,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2644,23 +2662,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2836,29 +2837,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="1" max="2" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C4" s="161" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="20">
         <v>13.56</v>
       </c>
@@ -2870,11 +2871,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C5" s="159" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="17">
         <v>50</v>
       </c>
@@ -2885,11 +2886,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C6" s="159" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="160"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="17">
         <v>300</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="104"/>
       <c r="D7" s="105" t="s">
         <v>165</v>
@@ -2913,9 +2914,9 @@
       </c>
       <c r="G7" s="106"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="104"/>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="176" t="s">
         <v>166</v>
       </c>
       <c r="E8" s="107">
@@ -2927,9 +2928,9 @@
       </c>
       <c r="G8" s="106"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="104"/>
-      <c r="D9" s="164"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="107">
         <f>E8*2/0.707</f>
         <v>346.46248129889369</v>
@@ -2939,7 +2940,7 @@
       </c>
       <c r="G9" s="106"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="104"/>
       <c r="D10" s="105" t="s">
         <v>174</v>
@@ -2953,7 +2954,7 @@
       </c>
       <c r="G10" s="106"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="104"/>
       <c r="D11" s="105" t="s">
         <v>171</v>
@@ -2966,7 +2967,7 @@
       </c>
       <c r="G11" s="106"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="104"/>
       <c r="D12" s="105" t="s">
         <v>172</v>
@@ -2982,11 +2983,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="157" t="s">
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="23">
         <v>30</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M14">
         <f>10*LOG(M13)</f>
         <v>0</v>
@@ -3029,7 +3030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15">
         <f>10*LOG(M13/0.001)</f>
         <v>30</v>
@@ -3046,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
         <v>4</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F17" s="75">
         <f>D17/2*0.707</f>
         <v>0</v>
@@ -3084,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L21">
         <v>12.56</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="L22">
         <v>13.56</v>
       </c>
@@ -3132,7 +3133,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
@@ -3140,29 +3141,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959500-F0F5-4B90-B450-D54992E13470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="192">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="158">
         <v>43617</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -3175,14 +3176,14 @@
       <c r="E3" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188" t="s">
+      <c r="G3" s="201"/>
+      <c r="H3" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="201"/>
       <c r="K3" t="s">
         <v>212</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -3263,20 +3264,20 @@
       <c r="K5" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="191" t="s">
+      <c r="L5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="191" t="s">
+      <c r="M5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="191" t="s">
+      <c r="N5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="191" t="s">
+      <c r="O5" s="157" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6</v>
       </c>
@@ -3307,20 +3308,20 @@
       <c r="K6" t="s">
         <v>213</v>
       </c>
-      <c r="L6" s="191" t="s">
+      <c r="L6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="191" t="s">
+      <c r="M6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="191" t="s">
+      <c r="N6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="O6" s="191" t="s">
+      <c r="O6" s="157" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -3413,51 +3414,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C087B7B-6011-41DB-8565-B1E55DD6BACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="188">
+      <c r="C2" s="201">
         <v>1</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188">
+      <c r="D2" s="201"/>
+      <c r="E2" s="201">
         <v>1</v>
       </c>
-      <c r="F2" s="188"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F2" s="201"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188">
+      <c r="C3" s="201">
         <v>1</v>
       </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188">
+      <c r="D3" s="201"/>
+      <c r="E3" s="201">
         <v>1</v>
       </c>
-      <c r="F3" s="188"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F3" s="201"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="204" t="s">
         <v>221</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="65" t="s">
         <v>199</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="48">
         <v>0</v>
       </c>
@@ -3514,10 +3515,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="152"/>
-      <c r="H7" s="197"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="51">
         <v>1</v>
       </c>
@@ -3535,14 +3536,14 @@
         <f t="shared" ref="F8:F17" si="1">12*E$3/(E$2+E$3+E8)</f>
         <v>5.286343612334802</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="198"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="164"/>
       <c r="M8">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="51">
         <v>2</v>
       </c>
@@ -3560,14 +3561,14 @@
         <f>12*E$3/(E$2+E$3+E9)</f>
         <v>4.1724617524339358</v>
       </c>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="198"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="164"/>
       <c r="M9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="51">
         <v>3</v>
       </c>
@@ -3585,15 +3586,15 @@
         <f t="shared" si="1"/>
         <v>3.5169988276670576</v>
       </c>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="198"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="164"/>
       <c r="M10">
         <f>M8/M9</f>
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="51">
         <v>4</v>
       </c>
@@ -3611,13 +3612,13 @@
         <f t="shared" si="1"/>
         <v>3.0318342597271348</v>
       </c>
-      <c r="G11" s="195">
+      <c r="G11" s="161">
         <v>2.7250000000000001</v>
       </c>
-      <c r="H11" s="196">
+      <c r="H11" s="162">
         <v>0.27</v>
       </c>
-      <c r="I11" s="199">
+      <c r="I11" s="165">
         <v>1.1299999999999999</v>
       </c>
       <c r="J11">
@@ -3628,7 +3629,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="51">
         <v>5</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="51">
         <v>6</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="51">
         <v>7</v>
       </c>
@@ -3711,17 +3712,17 @@
       <c r="G14" s="76">
         <v>2.081</v>
       </c>
-      <c r="H14" s="193">
+      <c r="H14" s="159">
         <v>0</v>
       </c>
-      <c r="I14" s="200">
+      <c r="I14" s="166">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J14" s="198">
+      <c r="J14" s="164">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="51">
         <v>8</v>
       </c>
@@ -3742,17 +3743,17 @@
       <c r="G15" s="76">
         <v>1.9279999999999999</v>
       </c>
-      <c r="H15" s="193">
+      <c r="H15" s="159">
         <v>0</v>
       </c>
-      <c r="I15" s="198">
+      <c r="I15" s="164">
         <v>0</v>
       </c>
-      <c r="J15" s="198">
+      <c r="J15" s="164">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="51">
         <v>9</v>
       </c>
@@ -3773,71 +3774,71 @@
       <c r="G16" s="76">
         <v>1.778</v>
       </c>
-      <c r="H16" s="193">
+      <c r="H16" s="159">
         <v>0</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="164">
         <v>0</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="164">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="53">
         <v>10</v>
       </c>
-      <c r="C17" s="201">
+      <c r="C17" s="167">
         <v>5</v>
       </c>
-      <c r="D17" s="201">
+      <c r="D17" s="167">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="E17" s="40">
         <v>5.3250000000000002</v>
       </c>
-      <c r="F17" s="201">
+      <c r="F17" s="167">
         <f t="shared" si="1"/>
         <v>1.6382252559726962</v>
       </c>
-      <c r="G17" s="201">
+      <c r="G17" s="167">
         <v>1.7150000000000001</v>
       </c>
-      <c r="H17" s="202">
+      <c r="H17" s="168">
         <v>0</v>
       </c>
-      <c r="I17" s="203">
+      <c r="I17" s="169">
         <v>0</v>
       </c>
-      <c r="J17" s="198">
+      <c r="J17" s="164">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="188">
+      <c r="C21" s="201">
         <v>1</v>
       </c>
-      <c r="D21" s="188"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D21" s="201"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="188">
+      <c r="C22" s="201">
         <v>1</v>
       </c>
-      <c r="D22" s="188"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D22" s="201"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="204" t="s">
         <v>221</v>
       </c>
@@ -3847,7 +3848,7 @@
       </c>
       <c r="F24" s="206"/>
     </row>
-    <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="65" t="s">
         <v>199</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="48">
         <v>0</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="51">
         <v>1</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="51">
         <v>2</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="51">
         <v>3</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="51">
         <v>4</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>460.79999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="51">
         <v>5</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="51">
         <v>6</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51">
         <v>7</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="51">
         <v>8</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="51">
         <v>9</v>
       </c>
@@ -4097,11 +4098,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53">
         <v>10</v>
       </c>
-      <c r="C36" s="201">
+      <c r="C36" s="167">
         <v>5</v>
       </c>
       <c r="D36" s="82">
@@ -4118,7 +4119,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J37">
         <f>J35/J36</f>
         <v>1.8518518518518516</v>
@@ -4142,25 +4143,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C78BB2F-A1AA-48EF-90B7-503CCC607E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.19921875" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>135</v>
       </c>
@@ -4175,16 +4176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -4198,27 +4199,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K4" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4235,12 +4238,15 @@
       <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="169" t="s">
+    <row r="6" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="182" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4263,111 +4269,125 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="170"/>
-      <c r="C7" s="165" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="207"/>
+      <c r="C7" s="208" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="209" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="210">
+        <v>48</v>
+      </c>
+      <c r="F7" s="210">
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="10">
+        <f>E7*F7</f>
+        <v>600</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="183"/>
+      <c r="C8" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D8" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
-        <f>E7*F7</f>
+      <c r="G8" s="12">
+        <f>E8*F8</f>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="171"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="13">
+    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="184"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="13">
         <v>12</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
-        <f>E8*F8</f>
+      <c r="G9" s="14">
+        <f>E9*F9</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="5" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="209" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8.34</v>
+      </c>
+      <c r="G10" s="3">
+        <f>E10*F10</f>
+        <v>100.08</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>70</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.35</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3">
-        <v>75</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1.2</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>78</v>
@@ -4379,34 +4399,63 @@
         <v>1.35</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>80</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>0.3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>0.9</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,30 +4464,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
@@ -4448,8 +4497,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="172" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="185" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4462,8 +4511,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="173"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="186"/>
       <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4474,8 +4523,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="173"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="186"/>
       <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
@@ -4486,8 +4535,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="174"/>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="187"/>
       <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
@@ -4499,8 +4548,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="172" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="185" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4513,8 +4562,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="173"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="186"/>
       <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
@@ -4525,8 +4574,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="173"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="186"/>
       <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
@@ -4538,8 +4587,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="173"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="186"/>
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
@@ -4550,8 +4599,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="173"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="186"/>
       <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
@@ -4562,8 +4611,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="175"/>
+    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="188"/>
       <c r="D16" s="23" t="s">
         <v>11</v>
       </c>
@@ -4588,25 +4637,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="176" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="189" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -4628,8 +4677,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="176"/>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="189"/>
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
@@ -4646,8 +4695,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="176"/>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="189"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -4664,8 +4713,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="176"/>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="189"/>
       <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
@@ -4685,8 +4734,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="176"/>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="189"/>
       <c r="D12" s="15" t="s">
         <v>30</v>
       </c>
@@ -4709,8 +4758,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="176"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="189"/>
       <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
@@ -4733,8 +4782,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="176"/>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="189"/>
       <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
@@ -4751,8 +4800,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="176"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="189"/>
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
@@ -4775,7 +4824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
@@ -4792,7 +4841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
@@ -4809,7 +4858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="15" t="s">
         <v>59</v>
       </c>
@@ -4829,7 +4878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="15" t="s">
         <v>61</v>
       </c>
@@ -4846,7 +4895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="15" t="s">
         <v>62</v>
       </c>
@@ -4863,7 +4912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" s="15" t="s">
         <v>63</v>
       </c>
@@ -4883,23 +4932,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="180" t="s">
+    <row r="22" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="177" t="s">
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="179"/>
-    </row>
-    <row r="24" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="192"/>
+    </row>
+    <row r="24" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="37" t="s">
         <v>28</v>
       </c>
@@ -4916,7 +4965,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E25" s="58" t="s">
         <v>29</v>
       </c>
@@ -4948,7 +4997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="60" t="s">
         <v>35</v>
       </c>
@@ -4980,7 +5029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="4:14" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:14" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="65" t="s">
         <v>27</v>
       </c>
@@ -5007,7 +5056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E28" s="62">
         <v>12.5</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>260.68206521739125</v>
       </c>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E29" s="38">
         <v>12</v>
       </c>
@@ -5075,7 +5124,7 @@
         <v>250.25478260869562</v>
       </c>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E30" s="38">
         <v>11.5</v>
       </c>
@@ -5109,7 +5158,7 @@
         <v>239.82749999999999</v>
       </c>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" s="15"/>
       <c r="E31" s="38">
         <v>11</v>
@@ -5144,7 +5193,7 @@
         <v>229.4002173913043</v>
       </c>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E32" s="38">
         <v>10.5</v>
       </c>
@@ -5178,7 +5227,7 @@
         <v>218.97293478260872</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E33" s="38">
         <v>10</v>
       </c>
@@ -5212,7 +5261,7 @@
         <v>208.54565217391306</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E34" s="38">
         <v>9.5</v>
       </c>
@@ -5246,7 +5295,7 @@
         <v>198.11836956521739</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E35" s="38">
         <v>9</v>
       </c>
@@ -5280,7 +5329,7 @@
         <v>187.6910869565217</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E36" s="38">
         <v>8.5</v>
       </c>
@@ -5314,7 +5363,7 @@
         <v>177.2638043478261</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E37" s="38">
         <v>8</v>
       </c>
@@ -5348,7 +5397,7 @@
         <v>166.83652173913046</v>
       </c>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="38">
         <v>7.5</v>
       </c>
@@ -5382,7 +5431,7 @@
         <v>156.4092391304348</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E39" s="38">
         <v>7</v>
       </c>
@@ -5416,7 +5465,7 @@
         <v>145.98195652173916</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E40" s="38">
         <v>6.5</v>
       </c>
@@ -5450,7 +5499,7 @@
         <v>135.55467391304344</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E41" s="38">
         <v>6</v>
       </c>
@@ -5484,7 +5533,7 @@
         <v>125.12739130434781</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E42" s="38">
         <v>5.5</v>
       </c>
@@ -5518,7 +5567,7 @@
         <v>114.70010869565215</v>
       </c>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E43" s="38">
         <v>5</v>
       </c>
@@ -5552,7 +5601,7 @@
         <v>104.27282608695653</v>
       </c>
     </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E44" s="38">
         <v>4.5</v>
       </c>
@@ -5586,7 +5635,7 @@
         <v>93.845543478260851</v>
       </c>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E45" s="38">
         <v>4</v>
       </c>
@@ -5620,7 +5669,7 @@
         <v>83.418260869565231</v>
       </c>
     </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E46" s="38">
         <v>3.5</v>
       </c>
@@ -5654,7 +5703,7 @@
         <v>72.990978260869582</v>
       </c>
     </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E47" s="38">
         <v>3</v>
       </c>
@@ -5688,7 +5737,7 @@
         <v>62.563695652173905</v>
       </c>
     </row>
-    <row r="48" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E48" s="39">
         <v>2.5</v>
       </c>
@@ -5736,16 +5785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>92</v>
       </c>
@@ -5759,7 +5808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>94</v>
       </c>
@@ -5773,7 +5822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -5789,7 +5838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>96</v>
       </c>
@@ -5813,20 +5862,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="15"/>
-    <col min="4" max="4" width="81.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
@@ -5837,7 +5886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -5848,7 +5897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>2</v>
       </c>
@@ -5859,7 +5908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -5870,7 +5919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
         <v>43</v>
       </c>
@@ -5885,20 +5934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC99BC-2C16-460C-8540-F2312C53F795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="8.296875" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>123</v>
       </c>
@@ -5907,7 +5956,7 @@
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>111</v>
       </c>
@@ -5927,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>110</v>
       </c>
@@ -5947,7 +5996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -5971,7 +6020,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -5982,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>112</v>
       </c>
@@ -5998,7 +6047,7 @@
         <v>2.6230000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>159</v>
       </c>
@@ -6011,39 +6060,39 @@
         <v>3.3613445378151257</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="182" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="162" t="s">
+      <c r="K11" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162" t="s">
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162" t="s">
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="162"/>
+      <c r="R11" s="175"/>
       <c r="S11" s="44"/>
     </row>
-    <row r="12" spans="2:19" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="60" t="s">
         <v>127</v>
       </c>
@@ -6099,7 +6148,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="48">
         <v>4</v>
       </c>
@@ -6152,7 +6201,7 @@
       </c>
       <c r="S13" s="44"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="51"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6202,7 +6251,7 @@
         <v>1.2043519999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="51"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6252,7 +6301,7 @@
         <v>1.5913280000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6300,7 +6349,7 @@
         <v>1.137032</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="51"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -6350,7 +6399,7 @@
         <v>9.5048000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="51"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6400,7 +6449,7 @@
         <v>0.10125000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="51"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6450,7 +6499,7 @@
         <v>5.779999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="84">
         <v>5</v>
       </c>
@@ -6512,7 +6561,7 @@
         <v>0.73689800000000005</v>
       </c>
     </row>
-    <row r="33" s="149" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="149" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K11:M11"/>
@@ -6528,19 +6577,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W56"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>109</v>
       </c>
@@ -6548,7 +6597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>13.56</v>
       </c>
@@ -6560,7 +6609,7 @@
         <v>1.1743043421077355</v>
       </c>
     </row>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
       <c r="Q7">
         <v>680</v>
       </c>
@@ -6572,7 +6621,7 @@
         <v>6.7434008092669409</v>
       </c>
     </row>
-    <row r="8" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>100</v>
       </c>
@@ -6593,7 +6642,7 @@
         <v>7.4051087958232937</v>
       </c>
     </row>
-    <row r="9" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>470</v>
       </c>
@@ -6618,7 +6667,7 @@
         <v>8.1600324610946249</v>
       </c>
     </row>
-    <row r="10" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>220</v>
       </c>
@@ -6646,7 +6695,7 @@
         <v>8.9071131829143706</v>
       </c>
     </row>
-    <row r="11" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K11">
         <v>120</v>
       </c>
@@ -6664,7 +6713,7 @@
         <v>9.7780802306742576</v>
       </c>
     </row>
-    <row r="12" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>150</v>
       </c>
@@ -6682,7 +6731,7 @@
         <v>10.629893905942531</v>
       </c>
     </row>
-    <row r="13" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K13">
         <v>180</v>
       </c>
@@ -6700,7 +6749,7 @@
         <v>11.148726783662498</v>
       </c>
     </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K14">
         <v>220</v>
       </c>
@@ -6718,7 +6767,7 @@
         <v>11.751789882432261</v>
       </c>
     </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K15">
         <v>330</v>
       </c>
@@ -6736,7 +6785,7 @@
         <v>12.464655475420971</v>
       </c>
     </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K16">
         <v>390</v>
       </c>
@@ -6760,7 +6809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>820</v>
       </c>
@@ -6794,7 +6843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>680</v>
       </c>
@@ -6809,7 +6858,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>51</v>
       </c>
@@ -6821,7 +6870,7 @@
         <v>45.514486502788969</v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>510</v>
       </c>
@@ -6833,40 +6882,40 @@
         <v>4.2911469397794235</v>
       </c>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V23">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V24">
         <v>1.27</v>
       </c>
     </row>
-    <row r="25" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V25">
         <f>V23-V24</f>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="26" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V26">
         <f>V25/2</f>
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V28">
         <v>1.27</v>
       </c>
     </row>
-    <row r="29" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V29">
         <f>V28/2</f>
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="60" t="s">
         <v>127</v>
       </c>
@@ -6889,7 +6938,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="84">
         <v>5</v>
       </c>
@@ -6912,38 +6961,38 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A51" s="185" t="s">
+    <row r="50" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="162" t="s">
+      <c r="L51" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162" t="s">
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162" t="s">
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="S51" s="162"/>
+      <c r="S51" s="175"/>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="73" t="s">
         <v>131</v>
       </c>
@@ -7005,7 +7054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="93">
         <v>0.64</v>
       </c>
@@ -7073,7 +7122,7 @@
         <v>0.73689800000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="99">
         <v>0.64</v>
       </c>
@@ -7141,7 +7190,7 @@
         <v>0.42136199999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
         <v>0.8</v>
       </c>
@@ -7178,7 +7227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="53">
         <v>0.48</v>
       </c>
@@ -7230,16 +7279,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8CB4C-2138-457F-AEBE-031CCCAABA8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>161</v>
       </c>
@@ -7250,7 +7299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -7261,7 +7310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -7272,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -7283,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
@@ -7297,7 +7346,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>160</v>
       </c>
@@ -7307,12 +7356,12 @@
       <c r="D7">
         <v>2.33</v>
       </c>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="188"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="K7" s="201"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -7332,7 +7381,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>162</v>
       </c>
@@ -7355,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -7378,7 +7427,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>163</v>
       </c>
@@ -7398,37 +7447,37 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="162" t="s">
+    <row r="13" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="162"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="161" t="s">
+      <c r="I14" s="175"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="162"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="190" t="s">
+      <c r="L14" s="175"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="103"/>
-      <c r="S14" s="162" t="s">
+      <c r="S14" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="T14" s="187"/>
-    </row>
-    <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T14" s="200"/>
+    </row>
+    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="101" t="s">
         <v>127</v>
       </c>
@@ -7487,7 +7536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="48">
         <v>6</v>
       </c>
@@ -7553,7 +7602,7 @@
         <v>28.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="51">
         <v>5</v>
       </c>
@@ -7615,7 +7664,7 @@
         <v>129.60000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="146">
         <v>4</v>
       </c>
@@ -7660,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="51">
         <v>5</v>
       </c>
@@ -7721,7 +7770,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="51">
         <v>5</v>
       </c>
@@ -7783,7 +7832,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="51"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -7825,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -7867,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="123"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
@@ -7909,38 +7958,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B27" s="182"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="184"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="162" t="s">
+      <c r="K27" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162" t="s">
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162" t="s">
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="R27" s="162"/>
+      <c r="R27" s="175"/>
       <c r="S27" s="44"/>
     </row>
-    <row r="28" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="104" t="s">
         <v>127</v>
       </c>
@@ -7996,7 +8045,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="48" t="s">
         <v>194</v>
       </c>
@@ -8052,7 +8101,7 @@
       </c>
       <c r="S29" s="44"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="51">
         <v>3</v>
       </c>
@@ -8097,7 +8146,7 @@
         <v>6.4980000000000005E-5</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="51">
         <v>4</v>
       </c>
@@ -8144,7 +8193,7 @@
         <v>2.6791199999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="51">
         <v>5</v>
       </c>
@@ -8191,7 +8240,7 @@
         <v>2.5537999999999995E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="51">
         <v>5</v>
       </c>
@@ -8240,7 +8289,7 @@
         <v>4.6080000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="51">
         <v>5</v>
       </c>
@@ -8287,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="51">
         <v>5</v>
       </c>
@@ -8338,7 +8387,7 @@
         <v>1.3520000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="84">
         <v>4</v>
       </c>
@@ -8397,52 +8446,52 @@
         <v>4.7432000000000003E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B39" s="161" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="162"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="162" t="s">
+      <c r="H39" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162" t="s">
+      <c r="I39" s="175"/>
+      <c r="J39" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162" t="s">
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162" t="s">
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="162"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
       <c r="T39" s="103"/>
-      <c r="U39" s="162" t="s">
+      <c r="U39" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="V39" s="187"/>
-    </row>
-    <row r="40" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V39" s="200"/>
+    </row>
+    <row r="40" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="104" t="s">
         <v>199</v>
       </c>
@@ -8507,7 +8556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="93">
         <v>4.5</v>
       </c>
@@ -8562,7 +8611,7 @@
       <c r="U41" s="152"/>
       <c r="V41" s="153"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="51"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -8623,7 +8672,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="51"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -8657,7 +8706,7 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="51">
         <v>4</v>
       </c>
@@ -8715,7 +8764,7 @@
       <c r="U44" s="17"/>
       <c r="V44" s="72"/>
     </row>
-    <row r="45" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="53">
         <v>4</v>
       </c>
@@ -8780,12 +8829,12 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="156" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P47" s="23">
         <v>360</v>
       </c>
@@ -8803,6 +8852,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="J7:K7"/>
@@ -8813,12 +8868,6 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma RF Review data_company.xlsx
+++ b/Plasma RF Review data_company.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3D1131-08FC-4164-8674-6D6E943B8A94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CA133-DD3A-4D63-A047-D2140859904B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="229">
   <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,6 +983,10 @@
   </si>
   <si>
     <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185x120x93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,108 +1937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2050,6 +1952,108 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2855,10 +2859,10 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="20">
         <v>13.56</v>
       </c>
@@ -2871,10 +2875,10 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="160"/>
+      <c r="D5" s="173"/>
       <c r="E5" s="17">
         <v>50</v>
       </c>
@@ -2886,10 +2890,10 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="160"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="17">
         <v>300</v>
       </c>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C8" s="104"/>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="176" t="s">
         <v>166</v>
       </c>
       <c r="E8" s="107">
@@ -2929,7 +2933,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C9" s="104"/>
-      <c r="D9" s="164"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="107">
         <f>E8*2/0.707</f>
         <v>346.46248129889369</v>
@@ -2983,10 +2987,10 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="23">
         <v>30</v>
       </c>
@@ -3153,7 +3157,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="192">
+      <c r="A1" s="158">
         <v>43617</v>
       </c>
     </row>
@@ -3175,14 +3179,14 @@
       <c r="E3" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="188" t="s">
+      <c r="F3" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188" t="s">
+      <c r="G3" s="201"/>
+      <c r="H3" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="188"/>
+      <c r="I3" s="201"/>
       <c r="K3" t="s">
         <v>212</v>
       </c>
@@ -3263,16 +3267,16 @@
       <c r="K5" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="191" t="s">
+      <c r="L5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="191" t="s">
+      <c r="M5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="N5" s="191" t="s">
+      <c r="N5" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="O5" s="191" t="s">
+      <c r="O5" s="157" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3307,16 +3311,16 @@
       <c r="K6" t="s">
         <v>213</v>
       </c>
-      <c r="L6" s="191" t="s">
+      <c r="L6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="M6" s="191" t="s">
+      <c r="M6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="191" t="s">
+      <c r="N6" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="O6" s="191" t="s">
+      <c r="O6" s="157" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3416,7 +3420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C087B7B-6011-41DB-8565-B1E55DD6BACE}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -3430,27 +3434,27 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="188">
+      <c r="C2" s="201">
         <v>1</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188">
+      <c r="D2" s="201"/>
+      <c r="E2" s="201">
         <v>1</v>
       </c>
-      <c r="F2" s="188"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188">
+      <c r="C3" s="201">
         <v>1</v>
       </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188">
+      <c r="D3" s="201"/>
+      <c r="E3" s="201">
         <v>1</v>
       </c>
-      <c r="F3" s="188"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -3514,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="152"/>
-      <c r="H7" s="197"/>
+      <c r="H7" s="163"/>
       <c r="I7" s="153"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
@@ -3535,9 +3539,9 @@
         <f t="shared" ref="F8:F17" si="1">12*E$3/(E$2+E$3+E8)</f>
         <v>5.286343612334802</v>
       </c>
-      <c r="G8" s="193"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="198"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="164"/>
       <c r="M8">
         <v>48</v>
       </c>
@@ -3560,9 +3564,9 @@
         <f>12*E$3/(E$2+E$3+E9)</f>
         <v>4.1724617524339358</v>
       </c>
-      <c r="G9" s="193"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="198"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="164"/>
       <c r="M9">
         <v>50</v>
       </c>
@@ -3585,9 +3589,9 @@
         <f t="shared" si="1"/>
         <v>3.5169988276670576</v>
       </c>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="198"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="164"/>
       <c r="M10">
         <f>M8/M9</f>
         <v>0.96</v>
@@ -3611,13 +3615,13 @@
         <f t="shared" si="1"/>
         <v>3.0318342597271348</v>
       </c>
-      <c r="G11" s="195">
+      <c r="G11" s="161">
         <v>2.7250000000000001</v>
       </c>
-      <c r="H11" s="196">
+      <c r="H11" s="162">
         <v>0.27</v>
       </c>
-      <c r="I11" s="199">
+      <c r="I11" s="165">
         <v>1.1299999999999999</v>
       </c>
       <c r="J11">
@@ -3711,13 +3715,13 @@
       <c r="G14" s="76">
         <v>2.081</v>
       </c>
-      <c r="H14" s="193">
+      <c r="H14" s="159">
         <v>0</v>
       </c>
-      <c r="I14" s="200">
+      <c r="I14" s="166">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J14" s="198">
+      <c r="J14" s="164">
         <v>0</v>
       </c>
     </row>
@@ -3742,13 +3746,13 @@
       <c r="G15" s="76">
         <v>1.9279999999999999</v>
       </c>
-      <c r="H15" s="193">
+      <c r="H15" s="159">
         <v>0</v>
       </c>
-      <c r="I15" s="198">
+      <c r="I15" s="164">
         <v>0</v>
       </c>
-      <c r="J15" s="198">
+      <c r="J15" s="164">
         <v>0</v>
       </c>
     </row>
@@ -3773,13 +3777,13 @@
       <c r="G16" s="76">
         <v>1.778</v>
       </c>
-      <c r="H16" s="193">
+      <c r="H16" s="159">
         <v>0</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="164">
         <v>0</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="164">
         <v>0</v>
       </c>
     </row>
@@ -3787,30 +3791,30 @@
       <c r="B17" s="53">
         <v>10</v>
       </c>
-      <c r="C17" s="201">
+      <c r="C17" s="167">
         <v>5</v>
       </c>
-      <c r="D17" s="201">
+      <c r="D17" s="167">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="E17" s="40">
         <v>5.3250000000000002</v>
       </c>
-      <c r="F17" s="201">
+      <c r="F17" s="167">
         <f t="shared" si="1"/>
         <v>1.6382252559726962</v>
       </c>
-      <c r="G17" s="201">
+      <c r="G17" s="167">
         <v>1.7150000000000001</v>
       </c>
-      <c r="H17" s="202">
+      <c r="H17" s="168">
         <v>0</v>
       </c>
-      <c r="I17" s="203">
+      <c r="I17" s="169">
         <v>0</v>
       </c>
-      <c r="J17" s="198">
+      <c r="J17" s="164">
         <v>0</v>
       </c>
     </row>
@@ -3818,19 +3822,19 @@
       <c r="B21" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="188">
+      <c r="C21" s="201">
         <v>1</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="201"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="188">
+      <c r="C22" s="201">
         <v>1</v>
       </c>
-      <c r="D22" s="188"/>
+      <c r="D22" s="201"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
@@ -4101,7 +4105,7 @@
       <c r="B36" s="53">
         <v>10</v>
       </c>
-      <c r="C36" s="201">
+      <c r="C36" s="167">
         <v>5</v>
       </c>
       <c r="D36" s="82">
@@ -4201,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4240,7 +4244,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="182" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4259,16 +4263,19 @@
         <f>E6*F6</f>
         <v>600</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="170"/>
-      <c r="C7" s="165" t="s">
+      <c r="B7" s="183"/>
+      <c r="C7" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="180" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11">
@@ -4283,9 +4290,9 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="171"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="168"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="181"/>
       <c r="E8" s="13">
         <v>12</v>
       </c>
@@ -4449,7 +4456,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="185" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4463,7 +4470,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="173"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4475,7 +4482,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="173"/>
+      <c r="C9" s="186"/>
       <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
@@ -4487,7 +4494,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="174"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
@@ -4500,7 +4507,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="185" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4514,7 +4521,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="173"/>
+      <c r="C12" s="186"/>
       <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
@@ -4526,7 +4533,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="173"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
@@ -4539,7 +4546,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="173"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +4558,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="173"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
@@ -4563,7 +4570,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="175"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="23" t="s">
         <v>11</v>
       </c>
@@ -4606,7 +4613,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="189" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -4629,7 +4636,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="176"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
@@ -4647,7 +4654,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="176"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -4665,7 +4672,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="176"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
@@ -4686,7 +4693,7 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="176"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="15" t="s">
         <v>30</v>
       </c>
@@ -4710,7 +4717,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="176"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4741,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="176"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
@@ -4752,7 +4759,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="176"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
@@ -4885,19 +4892,19 @@
     </row>
     <row r="22" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="180" t="s">
+      <c r="E23" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="177" t="s">
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="179"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="192"/>
     </row>
     <row r="24" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="37" t="s">
@@ -6016,31 +6023,31 @@
       <c r="F10" s="71"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="184"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="197"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="162" t="s">
+      <c r="K11" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162" t="s">
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162" t="s">
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="162"/>
+      <c r="R11" s="175"/>
       <c r="S11" s="44"/>
     </row>
     <row r="12" spans="2:19" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -6914,33 +6921,33 @@
     </row>
     <row r="50" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A51" s="185" t="s">
+      <c r="A51" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="199"/>
+      <c r="D51" s="199"/>
+      <c r="E51" s="199"/>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="162" t="s">
+      <c r="L51" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162" t="s">
+      <c r="M51" s="175"/>
+      <c r="N51" s="175"/>
+      <c r="O51" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162" t="s">
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="S51" s="162"/>
+      <c r="S51" s="175"/>
       <c r="T51" s="44"/>
     </row>
     <row r="52" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -7307,10 +7314,10 @@
       <c r="D7">
         <v>2.33</v>
       </c>
-      <c r="J7" s="188" t="s">
+      <c r="J7" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -7400,33 +7407,33 @@
     </row>
     <row r="13" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="162" t="s">
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="162"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="161" t="s">
+      <c r="I14" s="175"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="162"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="190" t="s">
+      <c r="L14" s="175"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="103"/>
-      <c r="S14" s="162" t="s">
+      <c r="S14" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="T14" s="187"/>
+      <c r="T14" s="200"/>
     </row>
     <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="101" t="s">
@@ -7915,29 +7922,29 @@
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B27" s="182"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="184"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="197"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="162" t="s">
+      <c r="K27" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162" t="s">
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162" t="s">
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="R27" s="162"/>
+      <c r="R27" s="175"/>
       <c r="S27" s="44"/>
     </row>
     <row r="28" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -8408,39 +8415,39 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B39" s="161" t="s">
+      <c r="B39" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="162"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="162" t="s">
+      <c r="H39" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162" t="s">
+      <c r="I39" s="175"/>
+      <c r="J39" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162" t="s">
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162" t="s">
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="162"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
       <c r="T39" s="103"/>
-      <c r="U39" s="162" t="s">
+      <c r="U39" s="175" t="s">
         <v>178</v>
       </c>
-      <c r="V39" s="187"/>
+      <c r="V39" s="200"/>
     </row>
     <row r="40" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="104" t="s">
@@ -8803,6 +8810,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="J7:K7"/>
@@ -8813,12 +8826,6 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma RF Review data_company.xlsx
+++ b/Plasma RF Review data_company.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CA133-DD3A-4D63-A047-D2140859904B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BDFB1E-2A01-4DE0-855C-A40EC1EC8DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="236">
   <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,6 +988,34 @@
   </si>
   <si>
     <t>185x120x93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vpp[V]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vrms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ref 장비 측정 결과 - Femto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2061,6 +2090,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2841,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:P22"/>
+  <dimension ref="B3:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3067,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
       <c r="F17" s="75">
         <f>D17/2*0.707</f>
         <v>0</v>
@@ -3088,7 +3126,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="207" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="208" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="208" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="208" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="208" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C20" s="48">
+        <v>20</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E20" s="20">
+        <f>D20*1000</f>
+        <v>280</v>
+      </c>
+      <c r="F20" s="82">
+        <f>E20/2*0.707</f>
+        <v>98.97999999999999</v>
+      </c>
+      <c r="G20" s="81">
+        <f>C20/F20</f>
+        <v>0.20206102242877352</v>
+      </c>
+      <c r="H20" s="50">
+        <f>F20*F20/C20</f>
+        <v>489.85201999999992</v>
+      </c>
       <c r="L20" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3181,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C21" s="51">
+        <v>50</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" ref="E21:E24" si="0">D21*1000</f>
+        <v>384</v>
+      </c>
+      <c r="F21" s="76">
+        <f t="shared" ref="F21:F24" si="1">E21/2*0.707</f>
+        <v>135.744</v>
+      </c>
+      <c r="G21" s="36">
+        <f t="shared" ref="G21:G24" si="2">C21/F21</f>
+        <v>0.36834040546911834</v>
+      </c>
+      <c r="H21" s="52">
+        <f t="shared" ref="H21:H24" si="3">F21*F21/C21</f>
+        <v>368.52867072000004</v>
+      </c>
       <c r="L21">
         <v>12.56</v>
       </c>
@@ -3111,7 +3218,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C22" s="51">
+        <v>100</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="F22" s="76">
+        <f t="shared" si="1"/>
+        <v>294.11199999999997</v>
+      </c>
+      <c r="G22" s="36">
+        <f t="shared" si="2"/>
+        <v>0.34000652812534005</v>
+      </c>
+      <c r="H22" s="52">
+        <f t="shared" si="3"/>
+        <v>865.01868543999979</v>
+      </c>
       <c r="L22">
         <v>13.56</v>
       </c>
@@ -3124,6 +3253,54 @@
       </c>
       <c r="O22" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C23" s="51">
+        <v>200</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.38</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="F23" s="76">
+        <f t="shared" si="1"/>
+        <v>487.83</v>
+      </c>
+      <c r="G23" s="36">
+        <f t="shared" si="2"/>
+        <v>0.40997888608736649</v>
+      </c>
+      <c r="H23" s="52">
+        <f t="shared" si="3"/>
+        <v>1189.8905445</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="53">
+        <v>300</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1.42</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+      <c r="F24" s="167">
+        <f t="shared" si="1"/>
+        <v>501.96999999999997</v>
+      </c>
+      <c r="G24" s="40">
+        <f t="shared" si="2"/>
+        <v>0.59764527760623143</v>
+      </c>
+      <c r="H24" s="54">
+        <f t="shared" si="3"/>
+        <v>839.91293633333316</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +4382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -8810,12 +8987,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="J7:K7"/>
@@ -8826,6 +8997,12 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma RF Review data_company.xlsx
+++ b/Plasma RF Review data_company.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BDFB1E-2A01-4DE0-855C-A40EC1EC8DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Debugging" sheetId="10" r:id="rId12"/>
     <sheet name="FILTER" sheetId="8" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="242">
   <si>
     <t>Power</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,11 +1017,35 @@
     <t>Ref 장비 측정 결과 - Femto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SMPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -1981,6 +2004,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2090,15 +2122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2144,7 +2167,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2216,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2265,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2314,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2369,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2430,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2480,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2535,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2634,26 +2657,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2686,23 +2692,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2878,29 +2867,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="1" max="2" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C4" s="174" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="20">
         <v>13.56</v>
       </c>
@@ -2912,11 +2901,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C5" s="172" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="176"/>
       <c r="E5" s="17">
         <v>50</v>
       </c>
@@ -2927,11 +2916,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C6" s="172" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C6" s="175" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="176"/>
       <c r="E6" s="17">
         <v>300</v>
       </c>
@@ -2942,7 +2931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="104"/>
       <c r="D7" s="105" t="s">
         <v>165</v>
@@ -2955,9 +2944,9 @@
       </c>
       <c r="G7" s="106"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="104"/>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="179" t="s">
         <v>166</v>
       </c>
       <c r="E8" s="107">
@@ -2969,9 +2958,9 @@
       </c>
       <c r="G8" s="106"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="104"/>
-      <c r="D9" s="177"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="107">
         <f>E8*2/0.707</f>
         <v>346.46248129889369</v>
@@ -2981,7 +2970,7 @@
       </c>
       <c r="G9" s="106"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="104"/>
       <c r="D10" s="105" t="s">
         <v>174</v>
@@ -2995,7 +2984,7 @@
       </c>
       <c r="G10" s="106"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="104"/>
       <c r="D11" s="105" t="s">
         <v>171</v>
@@ -3008,7 +2997,7 @@
       </c>
       <c r="G11" s="106"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="104"/>
       <c r="D12" s="105" t="s">
         <v>172</v>
@@ -3024,11 +3013,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C13" s="170" t="s">
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="171"/>
+      <c r="D13" s="174"/>
       <c r="E13" s="23">
         <v>30</v>
       </c>
@@ -3054,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M14">
         <f>10*LOG(M13)</f>
         <v>0</v>
@@ -3071,7 +3060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="M15">
         <f>10*LOG(M13/0.001)</f>
         <v>30</v>
@@ -3088,7 +3077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
         <v>4</v>
       </c>
@@ -3105,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F17" s="75">
         <f>D17/2*0.707</f>
         <v>0</v>
@@ -3126,32 +3115,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="207" t="s">
+    <row r="19" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="170" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="208" t="s">
+      <c r="D19" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="208" t="s">
+      <c r="E19" s="171" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="208" t="s">
+      <c r="F19" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="G19" s="208" t="s">
+      <c r="G19" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="H19" s="209" t="s">
+      <c r="H19" s="172" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="48">
         <v>20</v>
       </c>
@@ -3181,7 +3170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C21" s="51">
         <v>50</v>
       </c>
@@ -3218,7 +3207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C22" s="51">
         <v>100</v>
       </c>
@@ -3255,7 +3244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="51">
         <v>200</v>
       </c>
@@ -3279,7 +3268,7 @@
         <v>1189.8905445</v>
       </c>
     </row>
-    <row r="24" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="53">
         <v>300</v>
       </c>
@@ -3301,6 +3290,45 @@
       <c r="H24" s="54">
         <f t="shared" si="3"/>
         <v>839.91293633333316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29">
+        <v>600</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31">
+        <f>D29/D30</f>
+        <v>12.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3341,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
@@ -3321,29 +3349,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959500-F0F5-4B90-B450-D54992E13470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="158">
         <v>43617</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -3356,14 +3384,14 @@
       <c r="E3" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="201" t="s">
+      <c r="F3" s="204" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201" t="s">
+      <c r="G3" s="204"/>
+      <c r="H3" s="204" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="204"/>
       <c r="K3" t="s">
         <v>212</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>199</v>
       </c>
@@ -3413,7 +3441,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>6</v>
       </c>
@@ -3457,7 +3485,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6</v>
       </c>
@@ -3501,7 +3529,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3545,7 +3573,7 @@
         <v>1.631</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3577,7 +3605,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -3594,60 +3622,60 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C087B7B-6011-41DB-8565-B1E55DD6BACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="201">
+      <c r="C2" s="204">
         <v>1</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201">
+      <c r="D2" s="204"/>
+      <c r="E2" s="204">
         <v>1</v>
       </c>
-      <c r="F2" s="201"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F2" s="204"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="204">
         <v>1</v>
       </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201">
+      <c r="D3" s="204"/>
+      <c r="E3" s="204">
         <v>1</v>
       </c>
-      <c r="F3" s="201"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="F3" s="204"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="204" t="s">
+    <row r="5" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="204"/>
+      <c r="D5" s="207"/>
       <c r="G5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="65" t="s">
         <v>199</v>
       </c>
@@ -3676,7 +3704,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="48">
         <v>0</v>
       </c>
@@ -3698,7 +3726,7 @@
       <c r="H7" s="163"/>
       <c r="I7" s="153"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="51">
         <v>1</v>
       </c>
@@ -3723,7 +3751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="51">
         <v>2</v>
       </c>
@@ -3748,7 +3776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="51">
         <v>3</v>
       </c>
@@ -3774,7 +3802,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="51">
         <v>4</v>
       </c>
@@ -3809,7 +3837,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="51">
         <v>5</v>
       </c>
@@ -3840,7 +3868,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="51">
         <v>6</v>
       </c>
@@ -3871,7 +3899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="51">
         <v>7</v>
       </c>
@@ -3902,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="51">
         <v>8</v>
       </c>
@@ -3933,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="51">
         <v>9</v>
       </c>
@@ -3964,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="53">
         <v>10</v>
       </c>
@@ -3995,40 +4023,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="201">
+      <c r="C21" s="204">
         <v>1</v>
       </c>
-      <c r="D21" s="201"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D21" s="204"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="201">
+      <c r="C22" s="204">
         <v>1</v>
       </c>
-      <c r="D22" s="201"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D22" s="204"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="204" t="s">
+    <row r="24" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="207" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205" t="s">
+      <c r="D24" s="207"/>
+      <c r="E24" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="206"/>
-    </row>
-    <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="209"/>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="65" t="s">
         <v>199</v>
       </c>
@@ -4045,7 +4073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="48">
         <v>0</v>
       </c>
@@ -4063,7 +4091,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="51">
         <v>1</v>
       </c>
@@ -4090,7 +4118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="51">
         <v>2</v>
       </c>
@@ -4118,7 +4146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="51">
         <v>3</v>
       </c>
@@ -4148,7 +4176,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="51">
         <v>4</v>
       </c>
@@ -4178,7 +4206,7 @@
         <v>460.79999999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="51">
         <v>5</v>
       </c>
@@ -4196,7 +4224,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="51">
         <v>6</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="51">
         <v>7</v>
       </c>
@@ -4235,7 +4263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="51">
         <v>8</v>
       </c>
@@ -4256,7 +4284,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="51">
         <v>9</v>
       </c>
@@ -4278,7 +4306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53">
         <v>10</v>
       </c>
@@ -4299,7 +4327,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J37">
         <f>J35/J36</f>
         <v>1.8518518518518516</v>
@@ -4323,25 +4351,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C78BB2F-A1AA-48EF-90B7-503CCC607E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.19921875" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>135</v>
       </c>
@@ -4356,16 +4384,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -4379,27 +4407,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K4" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4420,8 +4448,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="182" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="185" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4447,12 +4475,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="183"/>
-      <c r="C7" s="178" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="186"/>
+      <c r="C7" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="183" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11">
@@ -4466,10 +4494,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="184"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="181"/>
+    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="187"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="13">
         <v>12</v>
       </c>
@@ -4481,8 +4509,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
@@ -4508,7 +4536,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
@@ -4537,7 +4565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>83</v>
       </c>
@@ -4566,7 +4594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>89</v>
       </c>
@@ -4599,30 +4627,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
@@ -4632,8 +4660,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="185" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="188" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4646,8 +4674,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="186"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="189"/>
       <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
@@ -4658,8 +4686,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="186"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="189"/>
       <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
@@ -4670,8 +4698,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="187"/>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="190"/>
       <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
@@ -4683,8 +4711,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="185" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="188" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4697,8 +4725,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="186"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="189"/>
       <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
@@ -4709,8 +4737,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="186"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="189"/>
       <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
@@ -4722,8 +4750,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C14" s="186"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="189"/>
       <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
@@ -4734,8 +4762,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C15" s="186"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="189"/>
       <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
@@ -4746,8 +4774,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="188"/>
+    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="191"/>
       <c r="D16" s="23" t="s">
         <v>11</v>
       </c>
@@ -4772,25 +4800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C8" s="189" t="s">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="192" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -4812,8 +4840,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C9" s="189"/>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="192"/>
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
@@ -4830,8 +4858,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="189"/>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="192"/>
       <c r="D10" s="15" t="s">
         <v>29</v>
       </c>
@@ -4848,8 +4876,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C11" s="189"/>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="192"/>
       <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
@@ -4869,8 +4897,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C12" s="189"/>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="192"/>
       <c r="D12" s="15" t="s">
         <v>30</v>
       </c>
@@ -4893,8 +4921,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C13" s="189"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="192"/>
       <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
@@ -4917,8 +4945,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C14" s="189"/>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="192"/>
       <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
@@ -4935,8 +4963,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C15" s="189"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="192"/>
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
@@ -4959,7 +4987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
@@ -4976,7 +5004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
@@ -4993,7 +5021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="15" t="s">
         <v>59</v>
       </c>
@@ -5013,7 +5041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="15" t="s">
         <v>61</v>
       </c>
@@ -5030,7 +5058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="15" t="s">
         <v>62</v>
       </c>
@@ -5047,7 +5075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" s="15" t="s">
         <v>63</v>
       </c>
@@ -5067,23 +5095,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E23" s="193" t="s">
+    <row r="22" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="190" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="192"/>
-    </row>
-    <row r="24" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="195"/>
+    </row>
+    <row r="24" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="37" t="s">
         <v>28</v>
       </c>
@@ -5100,7 +5128,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E25" s="58" t="s">
         <v>29</v>
       </c>
@@ -5132,7 +5160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="60" t="s">
         <v>35</v>
       </c>
@@ -5164,7 +5192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="4:14" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:14" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="65" t="s">
         <v>27</v>
       </c>
@@ -5191,7 +5219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E28" s="62">
         <v>12.5</v>
       </c>
@@ -5225,7 +5253,7 @@
         <v>260.68206521739125</v>
       </c>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E29" s="38">
         <v>12</v>
       </c>
@@ -5259,7 +5287,7 @@
         <v>250.25478260869562</v>
       </c>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E30" s="38">
         <v>11.5</v>
       </c>
@@ -5293,7 +5321,7 @@
         <v>239.82749999999999</v>
       </c>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" s="15"/>
       <c r="E31" s="38">
         <v>11</v>
@@ -5328,7 +5356,7 @@
         <v>229.4002173913043</v>
       </c>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="E32" s="38">
         <v>10.5</v>
       </c>
@@ -5362,7 +5390,7 @@
         <v>218.97293478260872</v>
       </c>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E33" s="38">
         <v>10</v>
       </c>
@@ -5396,7 +5424,7 @@
         <v>208.54565217391306</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E34" s="38">
         <v>9.5</v>
       </c>
@@ -5430,7 +5458,7 @@
         <v>198.11836956521739</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E35" s="38">
         <v>9</v>
       </c>
@@ -5464,7 +5492,7 @@
         <v>187.6910869565217</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E36" s="38">
         <v>8.5</v>
       </c>
@@ -5498,7 +5526,7 @@
         <v>177.2638043478261</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E37" s="38">
         <v>8</v>
       </c>
@@ -5532,7 +5560,7 @@
         <v>166.83652173913046</v>
       </c>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E38" s="38">
         <v>7.5</v>
       </c>
@@ -5566,7 +5594,7 @@
         <v>156.4092391304348</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E39" s="38">
         <v>7</v>
       </c>
@@ -5600,7 +5628,7 @@
         <v>145.98195652173916</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E40" s="38">
         <v>6.5</v>
       </c>
@@ -5634,7 +5662,7 @@
         <v>135.55467391304344</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E41" s="38">
         <v>6</v>
       </c>
@@ -5668,7 +5696,7 @@
         <v>125.12739130434781</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E42" s="38">
         <v>5.5</v>
       </c>
@@ -5702,7 +5730,7 @@
         <v>114.70010869565215</v>
       </c>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E43" s="38">
         <v>5</v>
       </c>
@@ -5736,7 +5764,7 @@
         <v>104.27282608695653</v>
       </c>
     </row>
-    <row r="44" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E44" s="38">
         <v>4.5</v>
       </c>
@@ -5770,7 +5798,7 @@
         <v>93.845543478260851</v>
       </c>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E45" s="38">
         <v>4</v>
       </c>
@@ -5804,7 +5832,7 @@
         <v>83.418260869565231</v>
       </c>
     </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E46" s="38">
         <v>3.5</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>72.990978260869582</v>
       </c>
     </row>
-    <row r="47" spans="5:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E47" s="38">
         <v>3</v>
       </c>
@@ -5872,7 +5900,7 @@
         <v>62.563695652173905</v>
       </c>
     </row>
-    <row r="48" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E48" s="39">
         <v>2.5</v>
       </c>
@@ -5920,16 +5948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>92</v>
       </c>
@@ -5943,7 +5971,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>94</v>
       </c>
@@ -5957,7 +5985,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>95</v>
       </c>
@@ -5973,7 +6001,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>96</v>
       </c>
@@ -5997,20 +6025,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="15"/>
-    <col min="4" max="4" width="81.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>40</v>
       </c>
@@ -6021,7 +6049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -6032,7 +6060,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="15">
         <v>2</v>
       </c>
@@ -6043,7 +6071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -6054,7 +6082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" s="15" t="s">
         <v>43</v>
       </c>
@@ -6069,20 +6097,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AC99BC-2C16-460C-8540-F2312C53F795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="8.296875" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>123</v>
       </c>
@@ -6091,7 +6119,7 @@
       </c>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>111</v>
       </c>
@@ -6111,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>110</v>
       </c>
@@ -6131,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -6155,7 +6183,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -6166,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>112</v>
       </c>
@@ -6182,7 +6210,7 @@
         <v>2.6230000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>159</v>
       </c>
@@ -6195,39 +6223,39 @@
         <v>3.3613445378151257</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="195" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="196"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="200"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="175" t="s">
+      <c r="K11" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175" t="s">
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175" t="s">
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="178" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="175"/>
+      <c r="R11" s="178"/>
       <c r="S11" s="44"/>
     </row>
-    <row r="12" spans="2:19" s="16" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="60" t="s">
         <v>127</v>
       </c>
@@ -6283,7 +6311,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="48">
         <v>4</v>
       </c>
@@ -6336,7 +6364,7 @@
       </c>
       <c r="S13" s="44"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="51"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -6386,7 +6414,7 @@
         <v>1.2043519999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="51"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -6436,7 +6464,7 @@
         <v>1.5913280000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="51"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -6484,7 +6512,7 @@
         <v>1.137032</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="51"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -6534,7 +6562,7 @@
         <v>9.5048000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="51"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -6584,7 +6612,7 @@
         <v>0.10125000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="51"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -6634,7 +6662,7 @@
         <v>5.779999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="84">
         <v>5</v>
       </c>
@@ -6696,7 +6724,7 @@
         <v>0.73689800000000005</v>
       </c>
     </row>
-    <row r="33" s="149" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="149" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K11:M11"/>
@@ -6712,19 +6740,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W56"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>109</v>
       </c>
@@ -6732,7 +6760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>13.56</v>
       </c>
@@ -6744,7 +6772,7 @@
         <v>1.1743043421077355</v>
       </c>
     </row>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
       <c r="Q7">
         <v>680</v>
       </c>
@@ -6756,7 +6784,7 @@
         <v>6.7434008092669409</v>
       </c>
     </row>
-    <row r="8" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>100</v>
       </c>
@@ -6777,7 +6805,7 @@
         <v>7.4051087958232937</v>
       </c>
     </row>
-    <row r="9" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>470</v>
       </c>
@@ -6802,7 +6830,7 @@
         <v>8.1600324610946249</v>
       </c>
     </row>
-    <row r="10" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>220</v>
       </c>
@@ -6830,7 +6858,7 @@
         <v>8.9071131829143706</v>
       </c>
     </row>
-    <row r="11" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K11">
         <v>120</v>
       </c>
@@ -6848,7 +6876,7 @@
         <v>9.7780802306742576</v>
       </c>
     </row>
-    <row r="12" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K12">
         <v>150</v>
       </c>
@@ -6866,7 +6894,7 @@
         <v>10.629893905942531</v>
       </c>
     </row>
-    <row r="13" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K13">
         <v>180</v>
       </c>
@@ -6884,7 +6912,7 @@
         <v>11.148726783662498</v>
       </c>
     </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K14">
         <v>220</v>
       </c>
@@ -6902,7 +6930,7 @@
         <v>11.751789882432261</v>
       </c>
     </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K15">
         <v>330</v>
       </c>
@@ -6920,7 +6948,7 @@
         <v>12.464655475420971</v>
       </c>
     </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K16">
         <v>390</v>
       </c>
@@ -6944,7 +6972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>820</v>
       </c>
@@ -6978,7 +7006,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.3">
       <c r="K18">
         <v>680</v>
       </c>
@@ -6993,7 +7021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>51</v>
       </c>
@@ -7005,7 +7033,7 @@
         <v>45.514486502788969</v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>510</v>
       </c>
@@ -7017,40 +7045,40 @@
         <v>4.2911469397794235</v>
       </c>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V23">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V24">
         <v>1.27</v>
       </c>
     </row>
-    <row r="25" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V25">
         <f>V23-V24</f>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="26" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V26">
         <f>V25/2</f>
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="28" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V28">
         <v>1.27</v>
       </c>
     </row>
-    <row r="29" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:23" x14ac:dyDescent="0.3">
       <c r="V29">
         <f>V28/2</f>
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C48" s="60" t="s">
         <v>127</v>
       </c>
@@ -7073,7 +7101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="84">
         <v>5</v>
       </c>
@@ -7096,38 +7124,38 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A51" s="198" t="s">
+    <row r="50" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="199"/>
-      <c r="D51" s="199"/>
-      <c r="E51" s="199"/>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="202"/>
+      <c r="E51" s="202"/>
+      <c r="F51" s="202"/>
+      <c r="G51" s="202"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="175" t="s">
+      <c r="L51" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="175"/>
-      <c r="N51" s="175"/>
-      <c r="O51" s="175" t="s">
+      <c r="M51" s="178"/>
+      <c r="N51" s="178"/>
+      <c r="O51" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="P51" s="175"/>
-      <c r="Q51" s="175"/>
-      <c r="R51" s="175" t="s">
+      <c r="P51" s="178"/>
+      <c r="Q51" s="178"/>
+      <c r="R51" s="178" t="s">
         <v>132</v>
       </c>
-      <c r="S51" s="175"/>
+      <c r="S51" s="178"/>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="73" t="s">
         <v>131</v>
       </c>
@@ -7189,7 +7217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="93">
         <v>0.64</v>
       </c>
@@ -7257,7 +7285,7 @@
         <v>0.73689800000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="99">
         <v>0.64</v>
       </c>
@@ -7325,7 +7353,7 @@
         <v>0.42136199999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="51">
         <v>0.8</v>
       </c>
@@ -7362,7 +7390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="53">
         <v>0.48</v>
       </c>
@@ -7414,16 +7442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E8CB4C-2138-457F-AEBE-031CCCAABA8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>161</v>
       </c>
@@ -7434,7 +7462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>110</v>
       </c>
@@ -7445,7 +7473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -7467,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>160</v>
       </c>
@@ -7481,7 +7509,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>160</v>
       </c>
@@ -7491,12 +7519,12 @@
       <c r="D7">
         <v>2.33</v>
       </c>
-      <c r="J7" s="201" t="s">
+      <c r="J7" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="201"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="K7" s="204"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>113</v>
       </c>
@@ -7516,7 +7544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>162</v>
       </c>
@@ -7539,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -7562,7 +7590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>163</v>
       </c>
@@ -7582,37 +7610,37 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="195"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="175" t="s">
+    <row r="13" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="175"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="174" t="s">
+      <c r="I14" s="178"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="175"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="203" t="s">
+      <c r="L14" s="178"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="178"/>
       <c r="R14" s="103"/>
-      <c r="S14" s="175" t="s">
+      <c r="S14" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="T14" s="200"/>
-    </row>
-    <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T14" s="203"/>
+    </row>
+    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="101" t="s">
         <v>127</v>
       </c>
@@ -7671,7 +7699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="48">
         <v>6</v>
       </c>
@@ -7737,7 +7765,7 @@
         <v>28.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="51">
         <v>5</v>
       </c>
@@ -7799,7 +7827,7 @@
         <v>129.60000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="146">
         <v>4</v>
       </c>
@@ -7844,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="51">
         <v>5</v>
       </c>
@@ -7905,7 +7933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="51">
         <v>5</v>
       </c>
@@ -7967,7 +7995,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="51"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -8009,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="51"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -8051,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="123"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
@@ -8093,38 +8121,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="B27" s="195"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="197"/>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="198"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="200"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="175" t="s">
+      <c r="K27" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175" t="s">
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175" t="s">
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="178" t="s">
         <v>132</v>
       </c>
-      <c r="R27" s="175"/>
+      <c r="R27" s="178"/>
       <c r="S27" s="44"/>
     </row>
-    <row r="28" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="104" t="s">
         <v>127</v>
       </c>
@@ -8180,7 +8208,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="48" t="s">
         <v>194</v>
       </c>
@@ -8236,7 +8264,7 @@
       </c>
       <c r="S29" s="44"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="51">
         <v>3</v>
       </c>
@@ -8281,7 +8309,7 @@
         <v>6.4980000000000005E-5</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="51">
         <v>4</v>
       </c>
@@ -8328,7 +8356,7 @@
         <v>2.6791199999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="51">
         <v>5</v>
       </c>
@@ -8375,7 +8403,7 @@
         <v>2.5537999999999995E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="51">
         <v>5</v>
       </c>
@@ -8424,7 +8452,7 @@
         <v>4.6080000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="51">
         <v>5</v>
       </c>
@@ -8471,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="51">
         <v>5</v>
       </c>
@@ -8522,7 +8550,7 @@
         <v>1.3520000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="84">
         <v>4</v>
       </c>
@@ -8581,52 +8609,52 @@
         <v>4.7432000000000003E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2.3719999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B39" s="174" t="s">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="178"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="175" t="s">
+      <c r="H39" s="178" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175" t="s">
+      <c r="I39" s="178"/>
+      <c r="J39" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175" t="s">
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175" t="s">
+      <c r="N39" s="178"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="175"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
       <c r="T39" s="103"/>
-      <c r="U39" s="175" t="s">
+      <c r="U39" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="V39" s="200"/>
-    </row>
-    <row r="40" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V39" s="203"/>
+    </row>
+    <row r="40" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="104" t="s">
         <v>199</v>
       </c>
@@ -8691,7 +8719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="93">
         <v>4.5</v>
       </c>
@@ -8746,7 +8774,7 @@
       <c r="U41" s="152"/>
       <c r="V41" s="153"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="51"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -8807,7 +8835,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="51"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -8841,7 +8869,7 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="51">
         <v>4</v>
       </c>
@@ -8899,7 +8927,7 @@
       <c r="U44" s="17"/>
       <c r="V44" s="72"/>
     </row>
-    <row r="45" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="53">
         <v>4</v>
       </c>
@@ -8964,12 +8992,12 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="156" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P47" s="23">
         <v>360</v>
       </c>
@@ -8987,6 +9015,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="J7:K7"/>
@@ -8997,12 +9031,6 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plasma RF Review data_company.xlsx
+++ b/Plasma RF Review data_company.xlsx
@@ -2167,7 +2167,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2216,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2265,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2314,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E95DC7C-B503-45DA-91C3-7F68809D288D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2430,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657D87C9-85E8-4F4D-8FE4-B1F4E680F3E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2480,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF265551-9AC3-4959-B81E-44F497B4CF6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2535,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9015,12 +9015,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H39:I39"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="J7:K7"/>
@@ -9031,6 +9025,12 @@
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
